--- a/testData/Order_Data.xlsx
+++ b/testData/Order_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91900\eclipse-workspace\BDD_SWIGGY\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8106821-3A53-43D9-BE96-73A4E1A3E7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5089A9D7-0D08-41A4-8167-6F6051C61E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3144" yWindow="2460" windowWidth="17280" windowHeight="8964" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -33,9 +33,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>Invalid</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
@@ -43,6 +40,9 @@
   </si>
   <si>
     <t>Pizza</t>
+  </si>
+  <si>
+    <t>invalid</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,7 +448,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -456,7 +456,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -464,10 +464,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/testData/Order_Data.xlsx
+++ b/testData/Order_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91900\eclipse-workspace\BDD_SWIGGY\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5089A9D7-0D08-41A4-8167-6F6051C61E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8ADBDC-349C-44D7-BF1D-C8907751F6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3144" yWindow="2460" windowWidth="17280" windowHeight="8964" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -39,10 +39,10 @@
     <t>Biryani</t>
   </si>
   <si>
-    <t>Pizza</t>
-  </si>
-  <si>
-    <t>invalid</t>
+    <t>Soda</t>
+  </si>
+  <si>
+    <t>Invalid</t>
   </si>
 </sst>
 </file>
